--- a/TestFiles/PrimaryTest.xlsx
+++ b/TestFiles/PrimaryTest.xlsx
@@ -115,7 +115,7 @@
     <t>十三</t>
   </si>
   <si>
-    <t>fou rteen</t>
+    <t>fourteen</t>
   </si>
   <si>
     <t>十四</t>
@@ -162,10 +162,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -177,6 +177,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -187,6 +194,36 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -198,115 +235,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,6 +258,67 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -329,55 +329,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,127 +497,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,8 +526,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,23 +550,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,17 +571,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,17 +606,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -625,157 +625,154 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1102,7 +1099,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33333333333333" defaultRowHeight="19" outlineLevelCol="5"/>
@@ -1115,7 +1112,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1135,7 +1132,7 @@
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1151,7 +1148,7 @@
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1167,7 +1164,7 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1183,7 +1180,7 @@
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1199,7 +1196,7 @@
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1215,7 +1212,7 @@
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1231,7 +1228,7 @@
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1247,7 +1244,7 @@
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1263,7 +1260,7 @@
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1279,7 +1276,7 @@
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1295,7 +1292,7 @@
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1311,7 +1308,7 @@
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1327,7 +1324,7 @@
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1343,7 +1340,7 @@
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1359,7 +1356,7 @@
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1375,7 +1372,7 @@
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -1391,7 +1388,7 @@
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -1407,7 +1404,7 @@
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -1423,7 +1420,7 @@
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1439,7 +1436,7 @@
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
